--- a/GameDataFiles/BaseType.xlsx
+++ b/GameDataFiles/BaseType.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="48" windowWidth="16092" windowHeight="12060"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="16095" windowHeight="12060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="54">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,7 +214,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -245,20 +261,59 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -267,14 +322,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -571,26 +638,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="12.8984375" style="2" customWidth="1"/>
-    <col min="8" max="9" width="12.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="12.875" style="1" customWidth="1"/>
+    <col min="8" max="9" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -650,217 +717,330 @@
       </c>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0</v>
-      </c>
-      <c r="N2" s="2">
-        <v>0</v>
-      </c>
-      <c r="O2" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>38</v>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0</v>
+      </c>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="A3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R3" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="B4" s="2">
+      <c r="A4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="5">
         <v>127</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="5">
         <v>255</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="5">
         <v>32767</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="5">
         <v>65535</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="5">
         <v>2147483647</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="5">
         <v>4294967295</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="5">
         <v>2147483647</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="5">
         <v>4294967295</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="P4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="Q4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="R4" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:18">
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="E5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="6">
         <v>-32768</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="G5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="I5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="2" t="s">
+      <c r="K5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" s="1" t="s">
+      <c r="M5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P5" s="2" t="s">
+      <c r="O5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="Q5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="R5" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="5">
+        <v>127</v>
+      </c>
+      <c r="E6" s="5">
+        <v>255</v>
+      </c>
+      <c r="F6" s="5">
+        <v>32767</v>
+      </c>
+      <c r="G6" s="5">
+        <v>65535</v>
+      </c>
+      <c r="H6" s="5">
+        <v>2147483647</v>
+      </c>
+      <c r="I6" s="5">
+        <v>4294967295</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="5">
+        <v>2147483647</v>
+      </c>
+      <c r="M6" s="5">
+        <v>4294967295</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="6">
+        <v>-32768</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="R7" s="5" t="s">
         <v>48</v>
       </c>
     </row>
@@ -877,7 +1057,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -890,7 +1070,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
